--- a/StructureDefinition-profile-RiskAssessment.xlsx
+++ b/StructureDefinition-profile-RiskAssessment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="341">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7855228-06:00</t>
+    <t>2026-02-09T22:05:43.3144408-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -746,14 +746,24 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RiskAssessment.performer|0.0.1-snapshot-3}
+    <t>RiskAssessment.performer.extension:performer</t>
+  </si>
+  <si>
+    <t>performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
 </t>
   </si>
   <si>
     <t>Cross-version extension for RiskAssessment.performer from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>The provider, patient, related person, or software application that performed the assessment.</t>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `RiskAssessment.performer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `RiskAssessment.performer` is mapped to FHIR R4 element `RiskAssessment.performer`.</t>
   </si>
   <si>
     <t>RiskAssessment.performer.reference</t>
@@ -1384,7 +1394,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.43359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.4921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="37.43359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1394,7 +1404,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.52734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.60546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3999,7 +4009,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>80</v>
@@ -4103,12 +4113,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>81</v>
       </c>
@@ -4129,15 +4141,17 @@
         <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4218,10 +4232,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4247,13 +4261,13 @@
         <v>223</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4303,7 +4317,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4312,7 +4326,7 @@
         <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>103</v>
@@ -4335,10 +4349,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4364,13 +4378,13 @@
         <v>105</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4396,13 +4410,13 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
@@ -4420,7 +4434,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4452,10 +4466,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4481,13 +4495,13 @@
         <v>148</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4537,7 +4551,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4558,7 +4572,7 @@
         <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -4569,10 +4583,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4598,13 +4612,13 @@
         <v>223</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4654,7 +4668,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4686,10 +4700,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4715,10 +4729,10 @@
         <v>173</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4769,7 +4783,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4784,7 +4798,7 @@
         <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>81</v>
@@ -4796,15 +4810,15 @@
         <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4827,13 +4841,13 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4884,7 +4898,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -4899,7 +4913,7 @@
         <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>81</v>
@@ -4911,15 +4925,15 @@
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4945,10 +4959,10 @@
         <v>156</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4999,7 +5013,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5020,10 +5034,10 @@
         <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>81</v>
@@ -5031,10 +5045,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5057,16 +5071,16 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5116,7 +5130,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5128,7 +5142,7 @@
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>81</v>
@@ -5137,7 +5151,7 @@
         <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5148,10 +5162,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5263,10 +5277,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5295,7 +5309,7 @@
         <v>137</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>139</v>
@@ -5380,14 +5394,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5409,10 +5423,10 @@
         <v>136</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>139</v>
@@ -5467,7 +5481,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5499,10 +5513,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5528,10 +5542,10 @@
         <v>173</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5561,28 +5575,28 @@
         <v>177</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5603,10 +5617,10 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
@@ -5614,10 +5628,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5640,16 +5654,16 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5699,7 +5713,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5711,7 +5725,7 @@
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
@@ -5720,10 +5734,10 @@
         <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
@@ -5731,10 +5745,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5760,10 +5774,10 @@
         <v>173</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5793,28 +5807,28 @@
         <v>177</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -5846,10 +5860,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5872,17 +5886,17 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -5931,7 +5945,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -5952,7 +5966,7 @@
         <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -5963,10 +5977,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5989,16 +6003,16 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6048,7 +6062,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6069,7 +6083,7 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6080,10 +6094,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6109,10 +6123,10 @@
         <v>223</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6163,7 +6177,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6184,10 +6198,10 @@
         <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
@@ -6195,10 +6209,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6224,14 +6238,14 @@
         <v>223</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -6280,7 +6294,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6301,7 +6315,7 @@
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6312,10 +6326,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6338,13 +6352,13 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6395,7 +6409,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6410,7 +6424,7 @@
         <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>81</v>

--- a/StructureDefinition-profile-RiskAssessment.xlsx
+++ b/StructureDefinition-profile-RiskAssessment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="346">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.3144408-06:00</t>
+    <t>2026-02-17T14:42:26.8948803-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -763,7 +763,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `RiskAssessment.performer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `RiskAssessment.performer` is mapped to FHIR R4 element `RiskAssessment.performer`.</t>
+Element `RiskAssessment.performer` has is mapped to FHIR R4 element `RiskAssessment.performer`, but has no comparisons.</t>
   </si>
   <si>
     <t>RiskAssessment.performer.reference</t>
@@ -918,7 +918,24 @@
     <t>RiskAssessment.prediction.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>RiskAssessment.prediction.extension:prediction</t>
+  </si>
+  <si>
+    <t>prediction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RiskAssessment.prediction|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for RiskAssessment.prediction from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `RiskAssessment.prediction` has is mapped to FHIR R4 element `RiskAssessment.prediction`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>RiskAssessment.prediction.modifierExtension</t>
@@ -1385,7 +1402,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO43"/>
+  <dimension ref="A1:AO44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1404,7 +1421,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.60546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="89.46875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -5284,7 +5301,7 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5306,14 +5323,12 @@
         <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>137</v>
+        <v>229</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5350,16 +5365,14 @@
         <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>81</v>
+        <v>233</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>234</v>
@@ -5383,7 +5396,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>227</v>
+        <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5394,14 +5407,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="C35" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="B35" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5414,26 +5429,24 @@
         <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>136</v>
+        <v>291</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>292</v>
       </c>
       <c r="M35" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="N35" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>81</v>
       </c>
@@ -5481,7 +5494,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>294</v>
+        <v>234</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5490,7 +5503,7 @@
         <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>81</v>
+        <v>294</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>141</v>
@@ -5502,7 +5515,7 @@
         <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5520,35 +5533,39 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
       </c>
@@ -5572,10 +5589,10 @@
         <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>298</v>
+        <v>81</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>81</v>
@@ -5596,19 +5613,19 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>81</v>
@@ -5617,10 +5634,10 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>299</v>
+        <v>87</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
@@ -5628,10 +5645,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5654,17 +5671,15 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>305</v>
-      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -5689,10 +5704,10 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>81</v>
+        <v>303</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>81</v>
@@ -5713,7 +5728,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5725,7 +5740,7 @@
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>306</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
@@ -5734,10 +5749,10 @@
         <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
@@ -5745,10 +5760,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5771,15 +5786,17 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>173</v>
+        <v>307</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -5804,13 +5821,13 @@
         <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>313</v>
+        <v>81</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>81</v>
@@ -5828,7 +5845,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -5840,7 +5857,7 @@
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>311</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>81</v>
@@ -5849,10 +5866,10 @@
         <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>81</v>
+        <v>313</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -5886,18 +5903,16 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>318</v>
-      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
       </c>
@@ -5921,13 +5936,13 @@
         <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>81</v>
+        <v>317</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>81</v>
+        <v>318</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>81</v>
@@ -5966,7 +5981,7 @@
         <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>319</v>
+        <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -5977,10 +5992,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6003,18 +6018,18 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="N40" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6062,7 +6077,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6083,7 +6098,7 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6094,10 +6109,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6120,7 +6135,7 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>223</v>
+        <v>326</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>327</v>
@@ -6128,7 +6143,9 @@
       <c r="M41" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6177,7 +6194,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6198,10 +6215,10 @@
         <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
@@ -6244,9 +6261,7 @@
         <v>333</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>334</v>
-      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>81</v>
       </c>
@@ -6315,10 +6330,10 @@
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>81</v>
@@ -6340,7 +6355,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
@@ -6352,16 +6367,18 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>81</v>
       </c>
@@ -6415,7 +6432,7 @@
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
@@ -6424,18 +6441,133 @@
         <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AL43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO43" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/StructureDefinition-profile-RiskAssessment.xlsx
+++ b/StructureDefinition-profile-RiskAssessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8948803-06:00</t>
+    <t>2026-02-20T11:59:20.9401109-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/RiskAssessment|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/RiskAssessment</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -752,7 +752,7 @@
     <t>performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -924,7 +924,7 @@
     <t>prediction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RiskAssessment.prediction|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RiskAssessment.prediction}
 </t>
   </si>
   <si>
@@ -1421,7 +1421,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.46875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.60546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-RiskAssessment.xlsx
+++ b/StructureDefinition-profile-RiskAssessment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="303">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9401109-06:00</t>
+    <t>2026-02-21T13:36:54.344685-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/RiskAssessment</t>
+    <t>http://hl7.org/fhir/StructureDefinition/RiskAssessment|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -705,7 +705,73 @@
     <t>FiveWs.actor</t>
   </si>
   <si>
-    <t>RiskAssessment.performer.id</t>
+    <t>RiskAssessment.reasonCode</t>
+  </si>
+  <si>
+    <t>Why the assessment was necessary?</t>
+  </si>
+  <si>
+    <t>The reason the risk assessment was performed.</t>
+  </si>
+  <si>
+    <t>Event.reasonCode</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>RiskAssessment.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|DiagnosticReport|4.0.1|DocumentReference|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Resources supporting the reason the risk assessment was performed.</t>
+  </si>
+  <si>
+    <t>Event.reasonReference</t>
+  </si>
+  <si>
+    <t>RiskAssessment.basis</t>
+  </si>
+  <si>
+    <t>Information used in assessment</t>
+  </si>
+  <si>
+    <t>Indicates the source data considered as part of the assessment (for example, FamilyHistory, Observations, Procedures, Conditions, etc.).</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DRIV].target</t>
+  </si>
+  <si>
+    <t>Risk Factor; Link to Evidence</t>
+  </si>
+  <si>
+    <t>RiskAssessment.prediction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Outcome predicted</t>
+  </si>
+  <si>
+    <t>Describes the expected outcome for the subject.</t>
+  </si>
+  <si>
+    <t>Multiple repetitions can be used to identify the same type of outcome in different timeframes as well as different types of outcomes.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ras-2:Must be &lt;= 100 {probability is decimal implies (probability as decimal) &lt;= 100}</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=VALUE].target[classCod=OBS, moodCode=RISK]</t>
+  </si>
+  <si>
+    <t>RiskAssessment.prediction.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -724,218 +790,13 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>RiskAssessment.performer.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>RiskAssessment.prediction.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>RiskAssessment.performer.extension:performer</t>
-  </si>
-  <si>
-    <t>performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for RiskAssessment.performer from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `RiskAssessment.performer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `RiskAssessment.performer` has is mapped to FHIR R4 element `RiskAssessment.performer`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>RiskAssessment.performer.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>RiskAssessment.performer.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>RiskAssessment.performer.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>RiskAssessment.performer.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
-    <t>RiskAssessment.reasonCode</t>
-  </si>
-  <si>
-    <t>Why the assessment was necessary?</t>
-  </si>
-  <si>
-    <t>The reason the risk assessment was performed.</t>
-  </si>
-  <si>
-    <t>Event.reasonCode</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>RiskAssessment.reasonReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|DiagnosticReport|4.0.1|DocumentReference|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Resources supporting the reason the risk assessment was performed.</t>
-  </si>
-  <si>
-    <t>Event.reasonReference</t>
-  </si>
-  <si>
-    <t>RiskAssessment.basis</t>
-  </si>
-  <si>
-    <t>Information used in assessment</t>
-  </si>
-  <si>
-    <t>Indicates the source data considered as part of the assessment (for example, FamilyHistory, Observations, Procedures, Conditions, etc.).</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DRIV].target</t>
-  </si>
-  <si>
-    <t>Risk Factor; Link to Evidence</t>
-  </si>
-  <si>
-    <t>RiskAssessment.prediction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Outcome predicted</t>
-  </si>
-  <si>
-    <t>Describes the expected outcome for the subject.</t>
-  </si>
-  <si>
-    <t>Multiple repetitions can be used to identify the same type of outcome in different timeframes as well as different types of outcomes.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ras-2:Must be &lt;= 100 {probability is decimal implies (probability as decimal) &lt;= 100}</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=VALUE].target[classCod=OBS, moodCode=RISK]</t>
-  </si>
-  <si>
-    <t>RiskAssessment.prediction.id</t>
-  </si>
-  <si>
-    <t>RiskAssessment.prediction.extension</t>
-  </si>
-  <si>
-    <t>RiskAssessment.prediction.extension:prediction</t>
-  </si>
-  <si>
-    <t>prediction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RiskAssessment.prediction}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for RiskAssessment.prediction from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `RiskAssessment.prediction` has is mapped to FHIR R4 element `RiskAssessment.prediction`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>RiskAssessment.prediction.modifierExtension</t>
@@ -1402,7 +1263,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO44"/>
+  <dimension ref="A1:AO36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1411,7 +1272,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.4921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.43359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="37.43359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1439,7 +1300,7 @@
     <col min="26" max="26" width="44.07421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.515625" customWidth="true" bestFit="true" hidden="true"/>
@@ -3914,7 +3775,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>81</v>
@@ -3926,13 +3787,13 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3983,42 +3844,42 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4041,13 +3902,13 @@
         <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>136</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4086,19 +3947,19 @@
         <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>232</v>
+        <v>81</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4110,10 +3971,10 @@
         <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>81</v>
+        <v>230</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>81</v>
@@ -4125,19 +3986,17 @@
         <v>81</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>81</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>81</v>
       </c>
@@ -4146,7 +4005,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
@@ -4158,17 +4017,15 @@
         <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>237</v>
+        <v>156</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4217,7 +4074,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4229,7 +4086,7 @@
         <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>81</v>
@@ -4238,10 +4095,10 @@
         <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>81</v>
+        <v>234</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>81</v>
@@ -4249,10 +4106,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4263,7 +4120,7 @@
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>81</v>
@@ -4272,19 +4129,19 @@
         <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4334,19 +4191,19 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>103</v>
+        <v>241</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>81</v>
@@ -4355,7 +4212,7 @@
         <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -4366,10 +4223,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4389,20 +4246,18 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>105</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -4427,13 +4282,13 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>253</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
@@ -4451,7 +4306,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4463,7 +4318,7 @@
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>81</v>
@@ -4472,7 +4327,7 @@
         <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>87</v>
+        <v>248</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -4483,21 +4338,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>81</v>
@@ -4506,19 +4361,19 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>137</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>258</v>
+        <v>139</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4568,19 +4423,19 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>81</v>
@@ -4589,7 +4444,7 @@
         <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -4600,44 +4455,46 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
       </c>
@@ -4685,19 +4542,19 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>81</v>
@@ -4717,10 +4574,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4731,7 +4588,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>81</v>
@@ -4746,10 +4603,10 @@
         <v>173</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4776,10 +4633,10 @@
         <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>81</v>
+        <v>260</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>81</v>
@@ -4800,13 +4657,13 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>81</v>
@@ -4815,27 +4672,27 @@
         <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>269</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>81</v>
+        <v>261</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>270</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4846,7 +4703,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
@@ -4858,15 +4715,17 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -4915,42 +4774,42 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>268</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>270</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4961,7 +4820,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
@@ -4973,13 +4832,13 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5006,13 +4865,13 @@
         <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>81</v>
+        <v>274</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>81</v>
@@ -5030,13 +4889,13 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
@@ -5051,10 +4910,10 @@
         <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>279</v>
+        <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>81</v>
@@ -5062,10 +4921,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5076,7 +4935,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>81</v>
@@ -5088,18 +4947,18 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5147,19 +5006,19 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>285</v>
+        <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>81</v>
@@ -5168,7 +5027,7 @@
         <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5179,10 +5038,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5205,15 +5064,17 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>223</v>
+        <v>283</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>224</v>
+        <v>284</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5262,7 +5123,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>226</v>
+        <v>282</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5274,7 +5135,7 @@
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>81</v>
@@ -5283,7 +5144,7 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>227</v>
+        <v>287</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5308,7 +5169,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
@@ -5320,13 +5181,13 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>136</v>
+        <v>244</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>229</v>
+        <v>289</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5365,29 +5226,31 @@
         <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AC34" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>81</v>
@@ -5396,10 +5259,10 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>81</v>
+        <v>292</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>81</v>
@@ -5407,14 +5270,12 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>81</v>
       </c>
@@ -5423,7 +5284,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>81</v>
@@ -5435,18 +5296,18 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
       </c>
@@ -5494,19 +5355,19 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>234</v>
+        <v>293</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>81</v>
@@ -5515,7 +5376,7 @@
         <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5526,14 +5387,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5546,26 +5407,22 @@
         <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>136</v>
+        <v>299</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>81</v>
       </c>
@@ -5613,7 +5470,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5625,949 +5482,21 @@
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O38" s="2"/>
-      <c r="P38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="P40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O41" s="2"/>
-      <c r="P41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="P43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO44" t="s" s="2">
         <v>81</v>
       </c>
     </row>
